--- a/src/main/resources/static/sample/poi-sample.xlsx
+++ b/src/main/resources/static/sample/poi-sample.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nycha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudwn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518EB4FF-E5A4-409B-9ECF-CD92CC501A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47DCAD9-7736-4A7A-9B08-05AAFF686B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D52048E2-3476-47BC-89D5-059378D5567D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3CDAABE-E176-40FF-B9F7-FF42E8FF7426}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>장비분류명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>중분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>장비아이콘명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,12 +58,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좌측 장비 분류명, 장비아이콘 명은 고정입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 코드와 장비 이름은 중복 불가이오니 참고 부탁드립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>태그명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변카메라1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변카메라2</t>
+  </si>
+  <si>
+    <t>주변카메라3</t>
+  </si>
+  <si>
+    <t>주변카메라4</t>
   </si>
 </sst>
 </file>
@@ -137,39 +158,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -221,7 +242,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -332,13 +353,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -347,6 +361,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -411,33 +432,58 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6895D653-1B09-4795-9D6F-E9878507B5B0}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A725CE8E-D8BD-4975-B034-FB331E954BCD}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,15 +496,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/sample/poi-sample.xlsx
+++ b/src/main/resources/static/sample/poi-sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudwn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudwn\project\ktds-jayang\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47DCAD9-7736-4A7A-9B08-05AAFF686B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B431255-E19D-4665-AF5E-F574BC0448CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3CDAABE-E176-40FF-B9F7-FF42E8FF7426}"/>
   </bookViews>
@@ -36,17 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>장비분류명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중분류명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비아이콘명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,26 +460,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A725CE8E-D8BD-4975-B034-FB331E954BCD}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,9 +511,6 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/sample/poi-sample.xlsx
+++ b/src/main/resources/static/sample/poi-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudwn\project\ktds-jayang\src\main\resources\static\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLX-PC-N002\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B431255-E19D-4665-AF5E-F574BC0448CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE356C2-FDF1-4B76-8035-E76BAEF977FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3CDAABE-E176-40FF-B9F7-FF42E8FF7426}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3CDAABE-E176-40FF-B9F7-FF42E8FF7426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>장비분류명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>주변카메라4</t>
+  </si>
+  <si>
+    <t>카메라IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,25 +464,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A725CE8E-D8BD-4975-B034-FB331E954BCD}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,18 +504,21 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
